--- a/results/mp/logistic/corona/confidence/210/desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
@@ -70,15 +67,15 @@
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -88,9 +85,15 @@
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -106,130 +109,142 @@
     <t>special</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>giving</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>alert</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -587,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -706,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8695652173913043</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -748,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -756,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8648648648648649</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -806,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8356164383561644</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <v>0.9166666666666666</v>
@@ -856,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8235294117647058</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -874,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L7">
         <v>30</v>
       </c>
-      <c r="K7">
-        <v>0.9138381201044387</v>
-      </c>
-      <c r="L7">
-        <v>350</v>
-      </c>
       <c r="M7">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9057591623036649</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>346</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7222222222222222</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8928571428571429</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6333333333333333</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10">
         <v>0.8846153846153846</v>
@@ -1056,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5502645502645502</v>
+        <v>0.5406976744186046</v>
       </c>
       <c r="C11">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="D11">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8773584905660378</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L11">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5406976744186046</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C12">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1124,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.8671875</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L12">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="M12">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5254237288135594</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1174,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.8636363636363636</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1198,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1206,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4705882352941176</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1224,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.8620689655172413</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1248,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1256,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3928571428571428</v>
+        <v>0.3154362416107382</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1274,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.85625</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L15">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1298,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1306,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3087248322147651</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1324,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.852112676056338</v>
+        <v>0.8625</v>
       </c>
       <c r="L16">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="M16">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1348,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2933333333333333</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1374,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.8297872340425532</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1406,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1944444444444444</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C18">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1424,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.825</v>
+        <v>0.8515625</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1448,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1456,37 +1471,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.004633920296570899</v>
+        <v>0.004414498141263941</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E19">
-        <v>0.38</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F19">
-        <v>0.62</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>4296</v>
+        <v>4285</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.8170731707317073</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L19">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M19">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1498,21 +1513,45 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.004225352112676056</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>47</v>
+      </c>
+      <c r="E20">
+        <v>0.55</v>
+      </c>
+      <c r="F20">
+        <v>0.45</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>4949</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>0.813953488372093</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1524,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>0.8095238095238095</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1550,21 +1589,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>0.8055555555555556</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1576,21 +1615,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1602,21 +1641,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.7916666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1628,21 +1667,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="L25">
         <v>48</v>
       </c>
-      <c r="K25">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="L25">
-        <v>22</v>
-      </c>
       <c r="M25">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1654,15 +1693,15 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L26">
         <v>21</v>
@@ -1680,21 +1719,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.7714285714285715</v>
+        <v>0.7441176470588236</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1706,21 +1745,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.7692307692307693</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1737,16 +1776,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1758,21 +1797,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.74</v>
+        <v>0.7244897959183674</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1781,24 +1820,24 @@
         <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.7323529411764705</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L31">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="M31">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1810,21 +1849,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>0.7280334728033473</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L32">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1836,21 +1875,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.7254237288135593</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L33">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1862,21 +1901,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>81</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.7127659574468085</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L34">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M34">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1888,21 +1927,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>0.696969696969697</v>
+        <v>0.675</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1914,21 +1953,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.6966292134831461</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L36">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1940,21 +1979,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>0.6785714285714286</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1966,21 +2005,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.6615384615384615</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L38">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1992,21 +2031,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K39">
-        <v>0.6078431372549019</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L39">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M39">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2018,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K40">
-        <v>0.5857142857142857</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L40">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M40">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2044,21 +2083,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K41">
-        <v>0.547945205479452</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2070,21 +2109,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K42">
-        <v>0.5476190476190477</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2096,47 +2135,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K43">
-        <v>0.5172413793103449</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>0.4487179487179487</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2148,21 +2187,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K45">
-        <v>0.4444444444444444</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2174,21 +2213,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K46">
-        <v>0.34375</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2200,21 +2239,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K47">
-        <v>0.3278688524590164</v>
+        <v>0.328125</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2226,33 +2265,189 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K48">
-        <v>0.006018054162487462</v>
+        <v>0.03473491773308958</v>
       </c>
       <c r="L48">
+        <v>19</v>
+      </c>
+      <c r="M48">
+        <v>19</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49">
+        <v>0.02337228714524207</v>
+      </c>
+      <c r="L49">
+        <v>28</v>
+      </c>
+      <c r="M49">
         <v>30</v>
       </c>
-      <c r="M48">
-        <v>41</v>
-      </c>
-      <c r="N48">
-        <v>0.73</v>
-      </c>
-      <c r="O48">
-        <v>0.27</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>4955</v>
+      <c r="N49">
+        <v>0.93</v>
+      </c>
+      <c r="O49">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50">
+        <v>0.02127659574468085</v>
+      </c>
+      <c r="L50">
+        <v>21</v>
+      </c>
+      <c r="M50">
+        <v>23</v>
+      </c>
+      <c r="N50">
+        <v>0.91</v>
+      </c>
+      <c r="O50">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51">
+        <v>0.007871064467766116</v>
+      </c>
+      <c r="L51">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <v>26</v>
+      </c>
+      <c r="N51">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O51">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52">
+        <v>0.005569737758180552</v>
+      </c>
+      <c r="L52">
+        <v>24</v>
+      </c>
+      <c r="M52">
+        <v>43</v>
+      </c>
+      <c r="N52">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O52">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53">
+        <v>0.005226130653266331</v>
+      </c>
+      <c r="L53">
+        <v>26</v>
+      </c>
+      <c r="M53">
+        <v>47</v>
+      </c>
+      <c r="N53">
+        <v>0.55</v>
+      </c>
+      <c r="O53">
+        <v>0.45</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K54">
+        <v>0.004464285714285714</v>
+      </c>
+      <c r="L54">
+        <v>23</v>
+      </c>
+      <c r="M54">
+        <v>36</v>
+      </c>
+      <c r="N54">
+        <v>0.64</v>
+      </c>
+      <c r="O54">
+        <v>0.36</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>5129</v>
       </c>
     </row>
   </sheetData>
